--- a/data/20241107_nowcast_fig.xlsx
+++ b/data/20241107_nowcast_fig.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Documents\GitHub\Nowcasting-Workspace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF744A80-EEB2-438E-A3F6-9A7DE78019C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28780B19-D4F5-4A4C-A88E-4A7D23BBB48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{1DBC09AA-7170-453A-A98D-142F7F39BB00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1DBC09AA-7170-453A-A98D-142F7F39BB00}"/>
   </bookViews>
   <sheets>
     <sheet name="20241107_nowcast" sheetId="1" r:id="rId1"/>
     <sheet name="20241107_nowcast_fig" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1229,9 +1242,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2842,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E3355-8F76-4893-BD67-5AECAC656CB6}">
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3756,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9EB9F1-DADD-4444-84F2-9ACE4808B343}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
